--- a/VersionColab/estadisticas_gusanos_ztf_30.xlsx
+++ b/VersionColab/estadisticas_gusanos_ztf_30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,26 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>iqr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mad</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cv_mediana_v1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cv_mediana_v2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +498,18 @@
       <c r="E2" t="n">
         <v>0.3212263573667245</v>
       </c>
+      <c r="F2" t="n">
+        <v>37396</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25336.18931204223</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5512382075471698</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3734697716987357</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +529,18 @@
       <c r="E3" t="n">
         <v>0.4644149510512813</v>
       </c>
+      <c r="F3" t="n">
+        <v>4855.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3531.558484480344</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6440413820545129</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4684075183341526</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +560,18 @@
       <c r="E4" t="n">
         <v>0.6719960277725788</v>
       </c>
+      <c r="F4" t="n">
+        <v>12261</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10522.02794473426</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9138406499217411</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7842310460411609</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +591,18 @@
       <c r="E5" t="n">
         <v>0.5172858164782533</v>
       </c>
+      <c r="F5" t="n">
+        <v>9012</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7613.162392026266</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.745347779340005</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6296553132103437</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +622,18 @@
       <c r="E6" t="n">
         <v>0.7060168430494037</v>
       </c>
+      <c r="F6" t="n">
+        <v>18059.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14407.18705832819</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.1828944782865</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9436816046589498</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +653,18 @@
       <c r="E7" t="n">
         <v>0.6179407014833601</v>
       </c>
+      <c r="F7" t="n">
+        <v>3074.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2367.715742953446</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.029293605624372</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7926734994822385</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +684,18 @@
       <c r="E8" t="n">
         <v>0.3118606346883934</v>
       </c>
+      <c r="F8" t="n">
+        <v>3480</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2654.59927223428</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5362095531587057</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4090291636724623</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +715,18 @@
       <c r="E9" t="n">
         <v>0.181783798023104</v>
       </c>
+      <c r="F9" t="n">
+        <v>4231.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3389.228671503806</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2806965174129353</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.224824455821148</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +746,18 @@
       <c r="E10" t="n">
         <v>0.6237353869152463</v>
       </c>
+      <c r="F10" t="n">
+        <v>4397</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3792.49647493733</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.072177517678615</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9247735856955206</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +777,18 @@
       <c r="E11" t="n">
         <v>0.783255640451288</v>
       </c>
+      <c r="F11" t="n">
+        <v>5393</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3875.522199173643</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.489161949468452</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.070142813523027</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +808,18 @@
       <c r="E12" t="n">
         <v>0.3368515074130355</v>
       </c>
+      <c r="F12" t="n">
+        <v>2078.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1544.130210573584</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.381225350820875</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2832486857880555</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +839,18 @@
       <c r="E13" t="n">
         <v>0.5935168930683349</v>
       </c>
+      <c r="F13" t="n">
+        <v>19514.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10710.31842648447</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9911371831987404</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5439747283500669</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +870,18 @@
       <c r="E14" t="n">
         <v>0.5455720152259355</v>
       </c>
+      <c r="F14" t="n">
+        <v>3547.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2945.189307061378</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6175907389677082</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.512697242068305</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +901,18 @@
       <c r="E15" t="n">
         <v>0.5556026178680569</v>
       </c>
+      <c r="F15" t="n">
+        <v>39026</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29867.02169179535</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8155392556370551</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.624141050546368</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +932,18 @@
       <c r="E16" t="n">
         <v>0.6138465334579307</v>
       </c>
+      <c r="F16" t="n">
+        <v>3346</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2720.57507095778</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.92150922610851</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7492633078925309</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +963,18 @@
       <c r="E17" t="n">
         <v>0.5337604921547832</v>
       </c>
+      <c r="F17" t="n">
+        <v>37860.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30022.69492473844</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7732838381569004</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6131961137382497</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +994,18 @@
       <c r="E18" t="n">
         <v>0.5802547819661602</v>
       </c>
+      <c r="F18" t="n">
+        <v>3783</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2834.735441782711</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7744114636642784</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5802938468337177</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -800,6 +1024,18 @@
       </c>
       <c r="E19" t="n">
         <v>0.9011275945591199</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9496</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5851.830956441611</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.293719806763285</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.41348573827092</v>
       </c>
     </row>
   </sheetData>
